--- a/Adult Income with the sample of 1k/Performance_metrics/model_perf_metrics_merged_only_with_cfs__200_300__1_2_3_5.xlsx
+++ b/Adult Income with the sample of 1k/Performance_metrics/model_perf_metrics_merged_only_with_cfs__200_300__1_2_3_5.xlsx
@@ -502,10 +502,10 @@
         <v>705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7431681485355648</v>
+        <v>0.7410760983263599</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.5394874476987448</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.3966942148760331</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5541317991631799</v>
+        <v>0.6184623430962344</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="G7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.175</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5244181485355648</v>
+        <v>0.5358590481171548</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>200</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5452078974895397</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.5376895920502092</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08108108108108107</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5087931485355649</v>
+        <v>0.5124215481171548</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>200</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5061453974895397</v>
+        <v>0.5580543933054394</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>200</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.5812303870292888</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.373015873015873</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.5722084205020921</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>200</v>
       </c>
       <c r="G14" t="n">
-        <v>0.175</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5358590481171548</v>
+        <v>0.5509283472803348</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>0.228310502283105</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4233459728033473</v>
+        <v>0.5669782949790795</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>200</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1126760563380282</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5249738493723849</v>
+        <v>0.5124215481171548</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.5759021966527197</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>400</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5671090481171548</v>
+        <v>0.5530203974895397</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>400</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08450704225352113</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5150692991631799</v>
+        <v>0.5373953974895397</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.1265822784810126</v>
       </c>
       <c r="H21" t="n">
-        <v>0.517161349372385</v>
+        <v>0.5181419979079498</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>400</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.5373953974895397</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>400</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5228817991631799</v>
+        <v>0.5759021966527197</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>400</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2409638554216867</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5592965481171548</v>
+        <v>0.5202340481171548</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>400</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5124215481171548</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>400</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1505376344086021</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5078125</v>
+        <v>0.5086623953974896</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>400</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>400</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5717180962343097</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>400</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.3716814159292035</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.6054850941422595</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>400</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H31" t="n">
-        <v>0.536970449790795</v>
+        <v>0.5202340481171548</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>400</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5280465481171548</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>400</v>
       </c>
       <c r="G33" t="n">
-        <v>0.225</v>
+        <v>0.3546798029556651</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5556681485355648</v>
+        <v>0.5657688284518828</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>600</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.3497267759562842</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.5679916317991632</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>600</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="H35" t="n">
-        <v>0.548411349372385</v>
+        <v>0.5399123953974895</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>600</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.25</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>600</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5551124476987448</v>
+        <v>0.5753464958158996</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>600</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5800862970711297</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>600</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1095890410958904</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5207897489539749</v>
+        <v>0.5622384937238494</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>600</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.175</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5415794979079498</v>
+        <v>0.5358590481171548</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>600</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5082374476987448</v>
+        <v>0.5665533472803347</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>600</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5530203974895397</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>600</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.5373953974895397</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>600</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>600</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.25</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>600</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1100917431192661</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4652850418410042</v>
+        <v>0.5597214958158996</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>600</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.5649189330543933</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>600</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.25</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.25</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.5665533472803347</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5541317991631799</v>
+        <v>0.5623692468619247</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.5717180962343097</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.5202340481171548</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>1000</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5530203974895397</v>
+        <v>0.5637748430962344</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1518987341772152</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5280465481171548</v>
+        <v>0.5373953974895397</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5394874476987448</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.25</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4244246861924686</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>1000</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.5623692468619247</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5436715481171548</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5493919979079498</v>
+        <v>0.5509283472803348</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2409638554216867</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5592965481171548</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>300</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5452078974895397</v>
+        <v>0.5711623953974896</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2644,10 +2644,10 @@
         <v>300</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="H65" t="n">
-        <v>0.50362839958159</v>
+        <v>0.5394874476987448</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>300</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02898550724637681</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4994442991631799</v>
+        <v>0.5415794979079498</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>300</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5078125</v>
+        <v>0.5280465481171548</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>300</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5648862447698745</v>
+        <v>0.5400431485355649</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>300</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5613885983263598</v>
+        <v>0.5623692468619247</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>300</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.3487738419618529</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3879118723849373</v>
+        <v>0.5</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2947368421052631</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5738101464435146</v>
+        <v>0.5648862447698745</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>300</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4952601987447699</v>
+        <v>0.5690703451882846</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>300</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08108108108108107</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5087931485355649</v>
+        <v>0.5862316945606695</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>300</v>
       </c>
       <c r="G74" t="n">
-        <v>0.25</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5587408472803348</v>
+        <v>0.5759021966527197</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>300</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2558139534883721</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5629249476987448</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>300</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4832635983263598</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5181419979079498</v>
+        <v>0.5711623953974896</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>300</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1095890410958904</v>
+        <v>0.25</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5207897489539749</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>600</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5541317991631799</v>
+        <v>0.5202340481171548</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3154,10 +3154,10 @@
         <v>600</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.15</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.5259544979079498</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>600</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3222,10 +3222,10 @@
         <v>600</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.175</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5415794979079498</v>
+        <v>0.5358590481171548</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>600</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5078125</v>
+        <v>0.5202340481171548</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>600</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.5530203974895397</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>600</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1298701298701299</v>
+        <v>0.25</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5223260983263598</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3358,10 +3358,10 @@
         <v>600</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1497326203208556</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3813415271966527</v>
+        <v>0.5759021966527197</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>600</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1797752808988764</v>
+        <v>0.3</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5269351464435146</v>
+        <v>0.5732544456066946</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>600</v>
       </c>
       <c r="G88" t="n">
-        <v>0.119047619047619</v>
+        <v>0.15</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5076817468619247</v>
+        <v>0.5259544979079498</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3460,10 +3460,10 @@
         <v>600</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5078125</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>600</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5186976987447699</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3528,10 +3528,10 @@
         <v>600</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.25</v>
       </c>
       <c r="H91" t="n">
-        <v>0.420927039748954</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>600</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.25</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>600</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.5373953974895397</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>900</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.25</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -3698,10 +3698,10 @@
         <v>900</v>
       </c>
       <c r="G96" t="n">
-        <v>0.131578947368421</v>
+        <v>0.25</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5244181485355648</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>900</v>
       </c>
       <c r="G97" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.25</v>
       </c>
       <c r="H97" t="n">
-        <v>0.515625</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>900</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5238624476987448</v>
+        <v>0.5759021966527197</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>900</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>900</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>900</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5509283472803348</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>900</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="H102" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.5858394351464435</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -3936,10 +3936,10 @@
         <v>900</v>
       </c>
       <c r="G103" t="n">
-        <v>0.08450704225352113</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5150692991631799</v>
+        <v>0.5452078974895397</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>900</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.2528735632183908</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5608328974895397</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>900</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1298701298701299</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5223260983263598</v>
+        <v>0.5280465481171548</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>900</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5509283472803348</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>900</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2637362637362637</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H107" t="n">
-        <v>0.5623692468619247</v>
+        <v>0.5373953974895397</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>900</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>1500</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.4028776978417266</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5394874476987448</v>
+        <v>0.620423640167364</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>1500</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4208,10 +4208,10 @@
         <v>1500</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.3603603603603604</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.5997646443514645</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>1500</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4856498430962343</v>
+        <v>0.5467442468619247</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>1500</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5202340481171548</v>
+        <v>0.5530203974895397</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>1500</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5551124476987448</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>1500</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0.5145135983263598</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>1500</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5078125</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -4412,10 +4412,10 @@
         <v>1500</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5166056485355648</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>1500</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.5644612970711297</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -4480,10 +4480,10 @@
         <v>1500</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.32</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5602771966527197</v>
+        <v>0.5831589958158996</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>1500</v>
       </c>
       <c r="G120" t="n">
-        <v>0.25</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5587408472803348</v>
+        <v>0.5623692468619247</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -4548,10 +4548,10 @@
         <v>1500</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5671090481171548</v>
+        <v>0.5373953974895397</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -4582,10 +4582,10 @@
         <v>1500</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.25</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5124215481171548</v>
+        <v>0.5587408472803348</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>1500</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2528735632183908</v>
+        <v>0.2608695652173912</v>
       </c>
       <c r="H123" t="n">
-        <v>0.5608328974895397</v>
+        <v>0.5602771966527197</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
